--- a/Web/files/ELM prediction/DKI 2/DKI1_SO2_pred.xlsx
+++ b/Web/files/ELM prediction/DKI 2/DKI1_SO2_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wahyu Mubarak S\Downloads\data web\ELM prediction\DKI 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4254940E-2BC8-4F63-92F6-798810B92277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79BFB2E-C7F3-4F79-8599-CA3B8001929A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <t>Actual SO2</t>
   </si>
   <si>
-    <t>Prediksi SO2</t>
+    <t>Predict SO2</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C2164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Web/files/ELM prediction/DKI 2/DKI1_SO2_pred.xlsx
+++ b/Web/files/ELM prediction/DKI 2/DKI1_SO2_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wahyu Mubarak S\Downloads\data web\ELM prediction\DKI 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79BFB2E-C7F3-4F79-8599-CA3B8001929A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF7D9C5-1A62-45A0-95FA-67880892E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>Actual SO2</t>
+    <t>SO2 Predict</t>
   </si>
   <si>
-    <t>Predict SO2</t>
+    <t>SO2 Actual</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C2164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,10 +408,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
